--- a/clustering5.xlsx
+++ b/clustering5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Cluster</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Temas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +487,11 @@
       <c r="E2" t="n">
         <v>4</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,6 +515,11 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -528,6 +543,11 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -551,6 +571,11 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +599,11 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -597,6 +627,11 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -620,6 +655,11 @@
       <c r="E8" t="n">
         <v>2</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,6 +683,11 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -666,6 +711,11 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,6 +739,11 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -712,6 +767,11 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -735,6 +795,11 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -758,6 +823,11 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -781,6 +851,11 @@
       <c r="E15" t="n">
         <v>4</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -804,6 +879,11 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -827,6 +907,11 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -850,6 +935,11 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -873,6 +963,11 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -896,6 +991,11 @@
       <c r="E20" t="n">
         <v>2</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -919,6 +1019,11 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -942,6 +1047,11 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -965,6 +1075,11 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -988,6 +1103,11 @@
       <c r="E24" t="n">
         <v>2</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1011,6 +1131,11 @@
       <c r="E25" t="n">
         <v>2</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1034,6 +1159,11 @@
       <c r="E26" t="n">
         <v>2</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1057,6 +1187,11 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1080,6 +1215,11 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1103,6 +1243,11 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1126,6 +1271,11 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1149,6 +1299,11 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1172,6 +1327,11 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1195,6 +1355,11 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1218,6 +1383,11 @@
       <c r="E34" t="n">
         <v>2</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1241,6 +1411,11 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1264,6 +1439,11 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1287,6 +1467,11 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1310,6 +1495,11 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1333,6 +1523,11 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1356,6 +1551,11 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1379,6 +1579,11 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1402,6 +1607,11 @@
       <c r="E42" t="n">
         <v>2</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1425,6 +1635,11 @@
       <c r="E43" t="n">
         <v>2</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1448,6 +1663,11 @@
       <c r="E44" t="n">
         <v>4</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1471,6 +1691,11 @@
       <c r="E45" t="n">
         <v>2</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1494,6 +1719,11 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1517,6 +1747,11 @@
       <c r="E47" t="n">
         <v>2</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1540,6 +1775,11 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1563,6 +1803,11 @@
       <c r="E49" t="n">
         <v>2</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1586,6 +1831,11 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1609,6 +1859,11 @@
       <c r="E51" t="n">
         <v>2</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1632,6 +1887,11 @@
       <c r="E52" t="n">
         <v>2</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1655,6 +1915,11 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1678,6 +1943,11 @@
       <c r="E54" t="n">
         <v>2</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1701,6 +1971,11 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1724,6 +1999,11 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1747,6 +2027,11 @@
       <c r="E57" t="n">
         <v>2</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1770,6 +2055,11 @@
       <c r="E58" t="n">
         <v>2</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1793,6 +2083,11 @@
       <c r="E59" t="n">
         <v>2</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1816,6 +2111,11 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1839,6 +2139,11 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1862,6 +2167,11 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1885,6 +2195,11 @@
       <c r="E63" t="n">
         <v>3</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1908,6 +2223,11 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1931,6 +2251,11 @@
       <c r="E65" t="n">
         <v>2</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1954,6 +2279,11 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1977,6 +2307,11 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2000,6 +2335,11 @@
       <c r="E68" t="n">
         <v>4</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2023,6 +2363,11 @@
       <c r="E69" t="n">
         <v>0</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2046,6 +2391,11 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2069,6 +2419,11 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2092,6 +2447,11 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2115,6 +2475,11 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2138,6 +2503,11 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2161,6 +2531,11 @@
       <c r="E75" t="n">
         <v>2</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2184,6 +2559,11 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2207,6 +2587,11 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2230,6 +2615,11 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2253,6 +2643,11 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2276,6 +2671,11 @@
       <c r="E80" t="n">
         <v>2</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2299,6 +2699,11 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2322,6 +2727,11 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2345,6 +2755,11 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2368,6 +2783,11 @@
       <c r="E84" t="n">
         <v>2</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2391,6 +2811,11 @@
       <c r="E85" t="n">
         <v>0</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2414,6 +2839,11 @@
       <c r="E86" t="n">
         <v>1</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2437,6 +2867,11 @@
       <c r="E87" t="n">
         <v>2</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2460,6 +2895,11 @@
       <c r="E88" t="n">
         <v>2</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2483,6 +2923,11 @@
       <c r="E89" t="n">
         <v>3</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2506,6 +2951,11 @@
       <c r="E90" t="n">
         <v>1</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2529,6 +2979,11 @@
       <c r="E91" t="n">
         <v>2</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2552,6 +3007,11 @@
       <c r="E92" t="n">
         <v>2</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2575,6 +3035,11 @@
       <c r="E93" t="n">
         <v>2</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2598,6 +3063,11 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2621,6 +3091,11 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2644,6 +3119,11 @@
       <c r="E96" t="n">
         <v>4</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2667,6 +3147,11 @@
       <c r="E97" t="n">
         <v>2</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2690,6 +3175,11 @@
       <c r="E98" t="n">
         <v>0</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2713,6 +3203,11 @@
       <c r="E99" t="n">
         <v>2</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2736,6 +3231,11 @@
       <c r="E100" t="n">
         <v>2</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2759,6 +3259,11 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2782,6 +3287,11 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2805,6 +3315,11 @@
       <c r="E103" t="n">
         <v>2</v>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2828,6 +3343,11 @@
       <c r="E104" t="n">
         <v>2</v>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2851,6 +3371,11 @@
       <c r="E105" t="n">
         <v>2</v>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2874,6 +3399,11 @@
       <c r="E106" t="n">
         <v>1</v>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2897,6 +3427,11 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2920,6 +3455,11 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2943,6 +3483,11 @@
       <c r="E109" t="n">
         <v>2</v>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2966,6 +3511,11 @@
       <c r="E110" t="n">
         <v>2</v>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2989,6 +3539,11 @@
       <c r="E111" t="n">
         <v>0</v>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3012,6 +3567,11 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3035,6 +3595,11 @@
       <c r="E113" t="n">
         <v>2</v>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3058,6 +3623,11 @@
       <c r="E114" t="n">
         <v>2</v>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3081,6 +3651,11 @@
       <c r="E115" t="n">
         <v>2</v>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3104,6 +3679,11 @@
       <c r="E116" t="n">
         <v>2</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3127,6 +3707,11 @@
       <c r="E117" t="n">
         <v>2</v>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3150,6 +3735,11 @@
       <c r="E118" t="n">
         <v>2</v>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3173,6 +3763,11 @@
       <c r="E119" t="n">
         <v>2</v>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3196,6 +3791,11 @@
       <c r="E120" t="n">
         <v>4</v>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3219,6 +3819,11 @@
       <c r="E121" t="n">
         <v>2</v>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3242,6 +3847,11 @@
       <c r="E122" t="n">
         <v>2</v>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3265,6 +3875,11 @@
       <c r="E123" t="n">
         <v>2</v>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3288,6 +3903,11 @@
       <c r="E124" t="n">
         <v>2</v>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3311,6 +3931,11 @@
       <c r="E125" t="n">
         <v>2</v>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3334,6 +3959,11 @@
       <c r="E126" t="n">
         <v>2</v>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3357,6 +3987,11 @@
       <c r="E127" t="n">
         <v>1</v>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3380,6 +4015,11 @@
       <c r="E128" t="n">
         <v>0</v>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3403,6 +4043,11 @@
       <c r="E129" t="n">
         <v>2</v>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3426,6 +4071,11 @@
       <c r="E130" t="n">
         <v>2</v>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3449,6 +4099,11 @@
       <c r="E131" t="n">
         <v>2</v>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3472,6 +4127,11 @@
       <c r="E132" t="n">
         <v>0</v>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3495,6 +4155,11 @@
       <c r="E133" t="n">
         <v>1</v>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3518,6 +4183,11 @@
       <c r="E134" t="n">
         <v>2</v>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3541,6 +4211,11 @@
       <c r="E135" t="n">
         <v>0</v>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3564,6 +4239,11 @@
       <c r="E136" t="n">
         <v>2</v>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3587,6 +4267,11 @@
       <c r="E137" t="n">
         <v>2</v>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3610,6 +4295,11 @@
       <c r="E138" t="n">
         <v>2</v>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3633,6 +4323,11 @@
       <c r="E139" t="n">
         <v>2</v>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3656,6 +4351,11 @@
       <c r="E140" t="n">
         <v>2</v>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3679,6 +4379,11 @@
       <c r="E141" t="n">
         <v>2</v>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3702,6 +4407,11 @@
       <c r="E142" t="n">
         <v>2</v>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3725,6 +4435,11 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3748,6 +4463,11 @@
       <c r="E144" t="n">
         <v>2</v>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3771,6 +4491,11 @@
       <c r="E145" t="n">
         <v>0</v>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3794,6 +4519,11 @@
       <c r="E146" t="n">
         <v>2</v>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3817,6 +4547,11 @@
       <c r="E147" t="n">
         <v>1</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3840,6 +4575,11 @@
       <c r="E148" t="n">
         <v>2</v>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3863,6 +4603,11 @@
       <c r="E149" t="n">
         <v>2</v>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3886,6 +4631,11 @@
       <c r="E150" t="n">
         <v>1</v>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3909,6 +4659,11 @@
       <c r="E151" t="n">
         <v>2</v>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3932,6 +4687,11 @@
       <c r="E152" t="n">
         <v>2</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3955,6 +4715,11 @@
       <c r="E153" t="n">
         <v>2</v>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3978,6 +4743,11 @@
       <c r="E154" t="n">
         <v>2</v>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4001,6 +4771,11 @@
       <c r="E155" t="n">
         <v>1</v>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4024,6 +4799,11 @@
       <c r="E156" t="n">
         <v>2</v>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4047,6 +4827,11 @@
       <c r="E157" t="n">
         <v>1</v>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4070,6 +4855,11 @@
       <c r="E158" t="n">
         <v>0</v>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4093,6 +4883,11 @@
       <c r="E159" t="n">
         <v>2</v>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4116,6 +4911,11 @@
       <c r="E160" t="n">
         <v>2</v>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4139,6 +4939,11 @@
       <c r="E161" t="n">
         <v>2</v>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4162,6 +4967,11 @@
       <c r="E162" t="n">
         <v>1</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4185,6 +4995,11 @@
       <c r="E163" t="n">
         <v>2</v>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4208,6 +5023,11 @@
       <c r="E164" t="n">
         <v>2</v>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4231,6 +5051,11 @@
       <c r="E165" t="n">
         <v>1</v>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4254,6 +5079,11 @@
       <c r="E166" t="n">
         <v>1</v>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4277,6 +5107,11 @@
       <c r="E167" t="n">
         <v>4</v>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4300,6 +5135,11 @@
       <c r="E168" t="n">
         <v>2</v>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4323,6 +5163,11 @@
       <c r="E169" t="n">
         <v>2</v>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4346,6 +5191,11 @@
       <c r="E170" t="n">
         <v>2</v>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4369,6 +5219,11 @@
       <c r="E171" t="n">
         <v>2</v>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4392,6 +5247,11 @@
       <c r="E172" t="n">
         <v>2</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4415,6 +5275,11 @@
       <c r="E173" t="n">
         <v>2</v>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4438,6 +5303,11 @@
       <c r="E174" t="n">
         <v>0</v>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4461,6 +5331,11 @@
       <c r="E175" t="n">
         <v>3</v>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4484,6 +5359,11 @@
       <c r="E176" t="n">
         <v>4</v>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4507,6 +5387,11 @@
       <c r="E177" t="n">
         <v>3</v>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4530,6 +5415,11 @@
       <c r="E178" t="n">
         <v>2</v>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4553,6 +5443,11 @@
       <c r="E179" t="n">
         <v>3</v>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4576,6 +5471,11 @@
       <c r="E180" t="n">
         <v>0</v>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4599,6 +5499,11 @@
       <c r="E181" t="n">
         <v>3</v>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4622,6 +5527,11 @@
       <c r="E182" t="n">
         <v>3</v>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4645,6 +5555,11 @@
       <c r="E183" t="n">
         <v>3</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4668,6 +5583,11 @@
       <c r="E184" t="n">
         <v>3</v>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4691,6 +5611,11 @@
       <c r="E185" t="n">
         <v>2</v>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4714,6 +5639,11 @@
       <c r="E186" t="n">
         <v>3</v>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4737,6 +5667,11 @@
       <c r="E187" t="n">
         <v>3</v>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4760,6 +5695,11 @@
       <c r="E188" t="n">
         <v>3</v>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4783,6 +5723,11 @@
       <c r="E189" t="n">
         <v>3</v>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4806,6 +5751,11 @@
       <c r="E190" t="n">
         <v>3</v>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4829,6 +5779,11 @@
       <c r="E191" t="n">
         <v>2</v>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4852,6 +5807,11 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Afirmaciones rápidas</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4875,6 +5835,11 @@
       <c r="E193" t="n">
         <v>3</v>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4898,6 +5863,11 @@
       <c r="E194" t="n">
         <v>4</v>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sin dudas claras</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4921,6 +5891,11 @@
       <c r="E195" t="n">
         <v>0</v>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4944,6 +5919,11 @@
       <c r="E196" t="n">
         <v>0</v>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Actitudes reflexivas</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4967,6 +5947,11 @@
       <c r="E197" t="n">
         <v>3</v>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4990,6 +5975,11 @@
       <c r="E198" t="n">
         <v>3</v>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5013,6 +6003,11 @@
       <c r="E199" t="n">
         <v>3</v>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5036,6 +6031,11 @@
       <c r="E200" t="n">
         <v>3</v>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5058,6 +6058,11 @@
       </c>
       <c r="E201" t="n">
         <v>3</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Preguntas cortas</t>
+        </is>
       </c>
     </row>
   </sheetData>
